--- a/01_Input/00_CO Validation/Pakistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Pakistan - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="178" documentId="11_88B88E8063A92BE234E2B46DF208AF432449C9CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899616BD-C727-4EF9-8A9D-FC2470B7C7DD}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_88B88E8063A92BE234E2B46DF208AF432449C9CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01723862-9665-43C2-8471-4B7CC017E2C8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="96">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -408,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -455,11 +458,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -494,10 +578,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,6 +598,66 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,524 +965,597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00A31A5-9618-4B96-B11E-A969F7EC52ED}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="55.28515625" customWidth="1"/>
-    <col min="10" max="13" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="2" max="2" width="16.42578125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="40"/>
+    <col min="5" max="5" width="34.140625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="40" customWidth="1"/>
+    <col min="9" max="9" width="55.28515625" style="40" customWidth="1"/>
+    <col min="10" max="13" width="16.42578125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="40"/>
+    <col min="15" max="15" width="16.140625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="40" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="40"/>
+    <col min="18" max="18" width="22.140625" style="40" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:19" ht="30.75">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="41.25" customHeight="1">
-      <c r="A2">
+      <c r="A2" s="25">
         <v>6542</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26">
         <v>3439041</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
         <v>267380</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="F3" s="8" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <v>3</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="P3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" ht="126.75" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>5.4</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="O3" t="s">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-    </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="E4" s="7" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>7110</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="93" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7110</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
-    <row r="6" spans="1:19" s="7" customFormat="1" ht="93" customHeight="1">
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="F7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>40</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O6" t="s">
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6"/>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" ht="53.25">
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="S7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>40</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="67.5">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>5</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O7" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7"/>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" ht="67.5">
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="S8" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>4</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O8" t="s">
+      <c r="K9" s="28"/>
+      <c r="L9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8"/>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" ht="40.5">
-      <c r="E9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9"/>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1">
-      <c r="A10" s="11">
+      <c r="S9" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A10" s="32">
         <v>134230</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33">
+        <v>540000</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35">
+        <v>1</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
-        <v>540000</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
         <v>1</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
+      <c r="I11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10"/>
-      <c r="R10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" ht="30.75">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="K11" s="35"/>
+      <c r="L11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="M11" s="35"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45.75">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
         <v>1</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="I12" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11"/>
-      <c r="R11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
+      <c r="K12" s="35"/>
+      <c r="L12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45.75">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <v>38</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30.75">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>38</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" t="s">
-        <v>45</v>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1440,19 +1653,19 @@
         <v>6542</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>3439041</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1461,18 +1674,18 @@
         <v>267380</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="43.5" customHeight="1">
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1481,40 +1694,40 @@
         <v>3</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="43.5" customHeight="1">
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="43.5" customHeight="1">
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1523,19 +1736,19 @@
         <v>7110</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="93" customHeight="1">
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1544,19 +1757,19 @@
         <v>32</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="53.25">
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1565,19 +1778,19 @@
         <v>40</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="67.5">
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1586,19 +1799,19 @@
         <v>5</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="40.5">
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1607,29 +1820,29 @@
         <v>4</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1">
       <c r="A10" s="11">
         <v>134230</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12">
         <v>540000</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -1638,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="30.75">
@@ -1653,10 +1866,10 @@
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -1665,12 +1878,12 @@
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="11"/>
@@ -1678,10 +1891,10 @@
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="11">
         <v>0</v>
@@ -1690,12 +1903,12 @@
         <v>1</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="30.75">
       <c r="A13" s="11"/>
@@ -1703,10 +1916,10 @@
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -1715,12 +1928,12 @@
         <v>38</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="K13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1758,160 +1971,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
-        <v>66</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
-        <v>71</v>
+      <c r="A5" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="21" t="s">
-        <v>81</v>
+      <c r="A10" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="22" t="s">
-        <v>86</v>
+      <c r="A12" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1926,8 +2139,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Amir Goraya</DisplayName>
+        <AccountId>1946</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1951,6 +2191,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2026,6 +2267,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -2168,35 +2414,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Amir Goraya</DisplayName>
-        <AccountId>1946</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D4DCD7B-5BC4-4F98-B6E9-470AC65EE944}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22656780-60FE-4705-8B86-84C922090F3E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2204,5 +2423,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22656780-60FE-4705-8B86-84C922090F3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F684F93-9CE7-4F90-86AB-CCCB13427EF4}"/>
 </file>
--- a/01_Input/00_CO Validation/Pakistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Pakistan - Energy Projects.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_88B88E8063A92BE234E2B46DF208AF432449C9CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01723862-9665-43C2-8471-4B7CC017E2C8}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="11_88B88E8063A92BE234E2B46DF208AF432449C9CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9452C0EC-80B7-4BF2-AB85-6529E3E608F4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="96">
   <si>
     <t>Project ID</t>
   </si>
@@ -140,22 +144,22 @@
     <t>No. of people with jobs in rural areas. Refined activity participation rates in rural areas: 47.1% (Male 68.4%, female 25.6%). Govt of Pakistan Labour Force Survey 2017/18</t>
   </si>
   <si>
+    <t>Cumulative number of sustainable biomass energy projects in rural areas that are facilitated by approved and effectively enforced policies and laws/regulations that promote the commercial production and use of sustainable biomass-based energy.</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Renewable EnergyEnergy Infrastructure</t>
+  </si>
+  <si>
+    <t>Cumulative number of rural villages that develop and implement energy-integrated development plans that include the commercial production and utilization of sustainable woody biomass.</t>
+  </si>
+  <si>
+    <t>This is 10 villages in each 4 provinces</t>
+  </si>
+  <si>
     <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Cumulative number of sustainable biomass energy projects in rural areas that are facilitated by approved and effectively enforced policies and laws/regulations that promote the commercial production and use of sustainable biomass-based energy.</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Renewable EnergyEnergy Infrastructure</t>
-  </si>
-  <si>
-    <t>Cumulative number of rural villages that develop and implement energy-integrated development plans that include the commercial production and utilization of sustainable woody biomass.</t>
-  </si>
-  <si>
-    <t>This is 10 villages in each 4 provinces</t>
   </si>
   <si>
     <t>No. of developed, approved, enforced, and implemented concrete regulations and policy instruments as part of the RE law to include market-based targets of biomass-based energy, particularly woody biomass</t>
@@ -367,7 +371,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00BDB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -578,6 +588,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,66 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,599 +984,1230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00A31A5-9618-4B96-B11E-A969F7EC52ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4072647-CAAE-4638-A285-C0075EDDEB06}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
-    <col min="2" max="2" width="16.42578125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="40"/>
-    <col min="5" max="5" width="34.140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="40" customWidth="1"/>
-    <col min="9" max="9" width="55.28515625" style="40" customWidth="1"/>
-    <col min="10" max="13" width="16.42578125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="40"/>
-    <col min="15" max="15" width="16.140625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="40" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="40"/>
-    <col min="18" max="18" width="22.140625" style="40" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="33"/>
+    <col min="2" max="2" width="16.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="33"/>
+    <col min="5" max="5" width="34.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="55.28515625" style="33" customWidth="1"/>
+    <col min="10" max="13" width="16.42578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="33"/>
+    <col min="15" max="15" width="16.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33"/>
+    <col min="18" max="18" width="22.140625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="41.25" customHeight="1">
-      <c r="A2" s="25">
+      <c r="A2" s="18">
         <v>6542</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="19">
         <v>3439041</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="28">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28">
+      <c r="G2" s="21">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
         <v>267380</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="28">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="G3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
         <v>3</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="126.75" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="27" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="28">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
         <v>5.4</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" s="7" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="27" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="28">
-        <v>0</v>
-      </c>
-      <c r="H5" s="28">
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
         <v>7110</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="93" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="27" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36">
+        <v>32</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="28">
-        <v>0</v>
-      </c>
-      <c r="H6" s="28">
+      <c r="S6" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>40</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="67.5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>5</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="40.5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>4</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A10" s="25">
+        <v>134230</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26">
+        <v>540000</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45.75">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>1</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45.75">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>38</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S13" xr:uid="{BA0BC336-9795-4F45-A911-4BA7BC9FD826}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R13" xr:uid="{79DBEB27-9C9B-43C9-80A8-AFCD0799FE4C}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q13" xr:uid="{76A362C7-D003-4C02-8970-BBDA5BF77BC7}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P13" xr:uid="{B7649B78-C242-432F-85F7-41B4188C8152}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O13" xr:uid="{54C6DB73-26EC-4C5F-83DE-87ADB2CA9AB2}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A53361B-8FD9-4D1D-955A-119D6801FC08}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00A31A5-9618-4B96-B11E-A969F7EC52ED}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="33"/>
+    <col min="2" max="2" width="16.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="33"/>
+    <col min="5" max="5" width="34.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="55.28515625" style="33" customWidth="1"/>
+    <col min="10" max="13" width="16.42578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="33"/>
+    <col min="15" max="15" width="16.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33"/>
+    <col min="18" max="18" width="22.140625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="30.75">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="41.25" customHeight="1">
+      <c r="A2" s="18">
+        <v>6542</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="19">
+        <v>3439041</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
+        <v>267380</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>3</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" ht="126.75" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="P4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>7110</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="93" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>32</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="28" t="s">
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" ht="77.25" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
         <v>40</v>
       </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28">
+      <c r="I7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="J7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="67.5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="F8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>5</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" ht="67.5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <v>5</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="28" t="s">
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>4</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A10" s="25">
+        <v>134230</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26">
+        <v>540000</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="45.75">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45.75">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>1</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28" t="s">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" ht="45.75">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="28">
-        <v>0</v>
-      </c>
-      <c r="H9" s="28">
-        <v>4</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+    </row>
+    <row r="13" spans="1:19" ht="45.75">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>38</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" ht="45.75">
-      <c r="A10" s="32">
-        <v>134230</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33">
-        <v>540000</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-      <c r="H10" s="35">
-        <v>1</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" ht="45.75">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="35">
-        <v>0</v>
-      </c>
-      <c r="H11" s="35">
-        <v>1</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="35">
-        <v>1</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="45.75">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <v>38</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28" t="s">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1592,12 +2245,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1676,7 +2329,7 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1699,7 +2352,7 @@
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="43.5" customHeight="1">
       <c r="E4" s="7" t="s">
@@ -1720,7 +2373,7 @@
       <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="43.5" customHeight="1">
       <c r="E5" s="7" t="s">
@@ -1741,14 +2394,14 @@
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="93" customHeight="1">
       <c r="E6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1762,14 +2415,14 @@
       <c r="J6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="53.25">
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1778,16 +2431,16 @@
         <v>40</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="67.5">
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>42</v>
@@ -1804,11 +2457,11 @@
       <c r="J8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="40.5">
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>44</v>
@@ -1825,7 +2478,7 @@
       <c r="J9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1">
       <c r="A10" s="11">
@@ -1839,7 +2492,7 @@
         <v>540000</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>48</v>
@@ -1856,7 +2509,7 @@
       <c r="J10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="40" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1866,7 +2519,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>52</v>
@@ -1883,7 +2536,7 @@
       <c r="J11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="11"/>
@@ -1891,7 +2544,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>54</v>
@@ -1908,7 +2561,7 @@
       <c r="J12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="30.75">
       <c r="A13" s="11"/>
@@ -1933,7 +2586,7 @@
       <c r="J13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1956,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1981,7 +2634,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B2" t="s">
@@ -1992,7 +2645,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -2001,7 +2654,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="41"/>
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -2010,7 +2663,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="42" t="s">
         <v>72</v>
       </c>
       <c r="B5" t="s">
@@ -2021,7 +2674,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="42"/>
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -2030,7 +2683,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="42"/>
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -2039,7 +2692,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="42"/>
       <c r="B8" t="s">
         <v>79</v>
       </c>
@@ -2048,7 +2701,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="42"/>
       <c r="B9" t="s">
         <v>64</v>
       </c>
@@ -2057,7 +2710,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="43" t="s">
         <v>82</v>
       </c>
       <c r="B10" t="s">
@@ -2068,7 +2721,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>85</v>
       </c>
@@ -2077,7 +2730,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B12" t="s">
@@ -2088,7 +2741,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="44"/>
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -2097,7 +2750,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -2110,7 +2763,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>94</v>
